--- a/database_old/Trace_Report_SBM.xlsx
+++ b/database_old/Trace_Report_SBM.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F23AC744-5834-422E-A974-0AEFB7A12F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6951F055-E8DA-4A49-B781-0FB0AA9B03DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="3045" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$4:$N$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$4:$O$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>Initial</t>
   </si>
@@ -68,16 +68,34 @@
     <t>Destination City</t>
   </si>
   <si>
-    <t>CGEX</t>
+    <t>BN</t>
   </si>
   <si>
     <t>Not authorized to view shipment</t>
   </si>
   <si>
-    <t>CGAX</t>
-  </si>
-  <si>
-    <t>EMPORIA</t>
+    <t>CRDX</t>
+  </si>
+  <si>
+    <t>DENVER</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Arrive In-Transit</t>
+  </si>
+  <si>
+    <t>HKCKDE</t>
+  </si>
+  <si>
+    <t>LOVELAND</t>
+  </si>
+  <si>
+    <t>BNSF</t>
+  </si>
+  <si>
+    <t>HOLCOMB</t>
   </si>
   <si>
     <t>KS</t>
@@ -86,67 +104,19 @@
     <t>Departure</t>
   </si>
   <si>
-    <t>HKCKDE</t>
-  </si>
-  <si>
-    <t>LOVELAND</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>BNSF</t>
-  </si>
-  <si>
-    <t>SAMX</t>
-  </si>
-  <si>
     <t>JOHNSTOWN</t>
   </si>
   <si>
     <t>Placed Actual</t>
   </si>
   <si>
-    <t>WFRX</t>
-  </si>
-  <si>
-    <t>KANSAS CITY</t>
-  </si>
-  <si>
-    <t>Arrive In-Transit</t>
-  </si>
-  <si>
-    <t>HNEWKC</t>
-  </si>
-  <si>
-    <t>MWCX</t>
-  </si>
-  <si>
-    <t>NEWTON</t>
-  </si>
-  <si>
-    <t>JNEWNE</t>
-  </si>
-  <si>
-    <t>CRDX</t>
-  </si>
-  <si>
-    <t>PUEBLO</t>
-  </si>
-  <si>
     <t>HRTX</t>
   </si>
   <si>
-    <t>SADLER</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>HLINKC</t>
-  </si>
-  <si>
-    <t>CGOX</t>
+    <t>LITTLETON</t>
+  </si>
+  <si>
+    <t>Junction Received</t>
   </si>
   <si>
     <t>Gross Weight</t>
@@ -158,46 +128,37 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 05/12/2023 05:56:44 EDT, by WPJTOWN1.The search returned: 10 events.</t>
+    <t>Description unknown, completed 06/15/2023 05:53:58 EDT, by WPJTOWN1.The search returned: 7 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
-    <t>CGEX1156</t>
-  </si>
-  <si>
-    <t>CGAX10146</t>
-  </si>
-  <si>
-    <t>SAMX11449</t>
-  </si>
-  <si>
-    <t>BNSF475050</t>
-  </si>
-  <si>
-    <t>WFRX454013</t>
-  </si>
-  <si>
-    <t>MWCX463796</t>
-  </si>
-  <si>
-    <t>CRDX15776</t>
-  </si>
-  <si>
-    <t>HRTX541008</t>
-  </si>
-  <si>
-    <t>CGAX10266</t>
-  </si>
-  <si>
-    <t>CGOX1030</t>
-  </si>
-  <si>
-    <t>2 CO</t>
-  </si>
-  <si>
-    <t>2 On Hand</t>
+    <t>BN471547</t>
+  </si>
+  <si>
+    <t>CRDX15008</t>
+  </si>
+  <si>
+    <t>BNSF468933</t>
+  </si>
+  <si>
+    <t>CRDX15003</t>
+  </si>
+  <si>
+    <t>HRTX541059</t>
+  </si>
+  <si>
+    <t>CRDX15803</t>
+  </si>
+  <si>
+    <t>HRTX541048</t>
+  </si>
+  <si>
+    <t>4 CO</t>
+  </si>
+  <si>
+    <t>1 On Hand</t>
   </si>
 </sst>
 </file>
@@ -1053,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K5" sqref="K5:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,29 +1029,29 @@
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1128,132 +1089,134 @@
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>11449</v>
+        <v>15003</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2">
-        <v>1412</v>
+        <v>1304</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L5" s="2">
-        <v>257836</v>
+        <v>286450</v>
       </c>
       <c r="M5" s="2">
-        <v>62700</v>
+        <v>68400</v>
       </c>
       <c r="N5" s="2">
-        <v>195136</v>
+        <v>218050</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2">
-        <v>475050</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1412</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>15008</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3">
+        <v>303</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="2">
-        <v>257050</v>
-      </c>
-      <c r="M6" s="2">
-        <v>61300</v>
-      </c>
-      <c r="N6" s="2">
-        <v>195750</v>
+      <c r="K6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="3">
+        <v>286650</v>
+      </c>
+      <c r="M6" s="3">
+        <v>68700</v>
+      </c>
+      <c r="N6" s="3">
+        <v>217950</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3">
-        <v>15776</v>
+        <v>541059</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3">
-        <v>915</v>
+        <v>101</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>16</v>
@@ -1262,328 +1225,185 @@
         <v>17</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L7" s="3">
-        <v>284000</v>
+        <v>261250</v>
       </c>
       <c r="M7" s="3">
-        <v>66800</v>
+        <v>64200</v>
       </c>
       <c r="N7" s="3">
-        <v>217200</v>
+        <v>197050</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>541008</v>
+        <v>15803</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1045</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3">
-        <v>915</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L8" s="3">
-        <v>267000</v>
+        <v>284700</v>
       </c>
       <c r="M8" s="3">
-        <v>64200</v>
+        <v>66900</v>
       </c>
       <c r="N8" s="3">
-        <v>202800</v>
+        <v>217800</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>454013</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B9" s="3">
+        <v>541048</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>557</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="E9" s="3">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1045</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9">
-        <v>261860</v>
-      </c>
-      <c r="M9">
-        <v>63900</v>
-      </c>
-      <c r="N9">
-        <v>197960</v>
+      <c r="K9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="3">
+        <v>202800</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>202800</v>
       </c>
       <c r="O9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>463796</v>
+        <v>468933</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>1000</v>
+        <v>702</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L10">
-        <v>238820</v>
+        <v>234960</v>
       </c>
       <c r="M10">
-        <v>63900</v>
+        <v>63600</v>
       </c>
       <c r="N10">
-        <v>174920</v>
+        <v>171360</v>
       </c>
       <c r="O10" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>10146</v>
+        <v>471547</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>311</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11">
-        <v>260660</v>
-      </c>
-      <c r="M11">
-        <v>63300</v>
-      </c>
-      <c r="N11">
-        <v>197360</v>
+        <v>11</v>
+      </c>
+      <c r="L11" t="s">
+        <v>11</v>
       </c>
       <c r="O11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>10266</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>2158</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12">
-        <v>197358</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>197358</v>
-      </c>
-      <c r="O12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <v>1030</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>2158</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13">
-        <v>237690</v>
-      </c>
-      <c r="M13">
-        <v>62300</v>
-      </c>
-      <c r="N13">
-        <v>175390</v>
-      </c>
-      <c r="O13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>1156</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:N14">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N14">
-      <sortCondition ref="D5:D14" customList="CO"/>
-      <sortCondition ref="H5:H14" customList="Placed Actual,Placed Construct"/>
-    </sortState>
-  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:O11">
+    <sortCondition ref="D5:D11" customList="CO"/>
+    <sortCondition ref="H5:H11" customList="Placed Actual,Placed Construct"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>